--- a/TransmitterBoard/Project Outputs for TransmitterBoard/TransmitterBoard.xlsx
+++ b/TransmitterBoard/Project Outputs for TransmitterBoard/TransmitterBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\TransmitterBoard\Project Outputs for TransmitterBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4DB3308-596D-4D66-BED3-1027A68B7CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E693904-3EA8-4B62-B3A7-20C9B79E4939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <t>CL32B226KAJNNNE</t>
   </si>
   <si>
-    <t>CL10B105KA8NNNC</t>
+    <t>CL10B105MO8NNWC</t>
   </si>
   <si>
     <t>CL10B104KA8NNNC</t>
@@ -126,7 +126,7 @@
     <t>GCM1885C2A560JA16D</t>
   </si>
   <si>
-    <t>GRM21BC71E106ME11L</t>
+    <t>GRM21BR61E106KA73K</t>
   </si>
   <si>
     <t>GCM21BR72A104KA37L</t>
@@ -156,7 +156,7 @@
     <t>DMG7430LFG-7</t>
   </si>
   <si>
-    <t>RK73B1JRTTD103J</t>
+    <t>RC0603JR-0710KL</t>
   </si>
   <si>
     <t>RK73B2ATTD242J</t>
@@ -189,7 +189,7 @@
     <t>RK73B1JTTD221J</t>
   </si>
   <si>
-    <t>CR0805-JW-681ELF</t>
+    <t>ESR10EZPJ681</t>
   </si>
   <si>
     <t>RK73B2ATTD3R0J</t>
@@ -840,10 +840,10 @@
         <v>70</v>
       </c>
       <c r="G6">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H6">
-        <v>0.04</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -970,10 +970,10 @@
         <v>75</v>
       </c>
       <c r="G11">
-        <v>0.43890000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="H11">
-        <v>3.07</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,10 +1257,10 @@
         <v>80</v>
       </c>
       <c r="G24">
-        <v>5.6000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H24">
-        <v>0.44800000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1543,10 +1543,10 @@
         <v>680</v>
       </c>
       <c r="G35">
-        <v>5.7000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H35">
-        <v>5.7000000000000002E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">

--- a/TransmitterBoard/Project Outputs for TransmitterBoard/TransmitterBoard.xlsx
+++ b/TransmitterBoard/Project Outputs for TransmitterBoard/TransmitterBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\TransmitterBoard\Project Outputs for TransmitterBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E693904-3EA8-4B62-B3A7-20C9B79E4939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{273B9160-0A6A-46E6-A2C1-CEFE21385673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -129,10 +129,7 @@
     <t>GRM21BR61E106KA73K</t>
   </si>
   <si>
-    <t>GCM21BR72A104KA37L</t>
-  </si>
-  <si>
-    <t>C0805C683K1RACTU</t>
+    <t>CL21B104KCFNNNE</t>
   </si>
   <si>
     <t>CL21B473KCCWPNC</t>
@@ -198,7 +195,7 @@
     <t>RK73B2ATTD512J</t>
   </si>
   <si>
-    <t>SG732ATTD101K</t>
+    <t>RC0805FR-07100RL</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -701,19 +698,19 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -730,10 +727,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>8.0000000000000002E-3</v>
@@ -756,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3">
         <v>4.3900000000000002E-2</v>
@@ -782,10 +779,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4">
         <v>0.25</v>
@@ -808,10 +805,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>0.59589999999999999</v>
@@ -834,10 +831,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6">
         <v>8.0000000000000002E-3</v>
@@ -860,10 +857,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7">
         <v>2.7E-2</v>
@@ -886,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8">
         <v>0.34</v>
@@ -912,10 +909,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -938,10 +935,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10">
         <v>0.13</v>
@@ -964,10 +961,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11">
         <v>0.104</v>
@@ -990,16 +987,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <v>0.2147</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H12">
-        <v>0.2147</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1009,23 +1006,23 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
+      <c r="C13">
+        <v>885012207127</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13">
-        <v>0.17130000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H13">
-        <v>0.17130000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,16 +1033,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>1.7999999999999999E-2</v>
@@ -1065,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1079,13 +1076,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16">
         <v>0.08</v>
@@ -1099,13 +1096,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17">
         <v>0.14000000000000001</v>
@@ -1125,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,13 +1136,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19">
         <v>0.82</v>
@@ -1162,13 +1159,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>0.20810000000000001</v>
@@ -1185,13 +1182,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>2.3E-2</v>
@@ -1208,13 +1205,13 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>0.30070000000000002</v>
@@ -1234,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,16 +1242,16 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24">
         <v>1.4999999999999999E-2</v>
@@ -1271,16 +1268,16 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25">
         <v>2.5999999999999999E-2</v>
@@ -1297,16 +1294,16 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26">
         <v>2.8199999999999999E-2</v>
@@ -1323,16 +1320,16 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27">
         <v>7.5999999999999998E-2</v>
@@ -1349,16 +1346,16 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -1375,13 +1372,13 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1401,16 +1398,16 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30">
         <v>6.1000000000000004E-3</v>
@@ -1427,16 +1424,16 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31">
         <v>1.2999999999999999E-2</v>
@@ -1453,13 +1450,13 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32">
         <v>12</v>
@@ -1479,16 +1476,16 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33">
         <v>0.14000000000000001</v>
@@ -1505,13 +1502,13 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>220</v>
@@ -1531,13 +1528,13 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <v>680</v>
@@ -1557,13 +1554,13 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -1583,16 +1580,16 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37">
         <v>0.1</v>
@@ -1609,22 +1606,22 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38">
         <v>100</v>
       </c>
       <c r="G38">
-        <v>0.3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H38">
-        <v>0.3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1638,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">

--- a/TransmitterBoard/Project Outputs for TransmitterBoard/TransmitterBoard.xlsx
+++ b/TransmitterBoard/Project Outputs for TransmitterBoard/TransmitterBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\TransmitterBoard\Project Outputs for TransmitterBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{273B9160-0A6A-46E6-A2C1-CEFE21385673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F104669-41C9-4734-84F8-4A3C3CD803EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -141,6 +141,9 @@
     <t>150060RS75000</t>
   </si>
   <si>
+    <t>LQM18PN4R7MFRL</t>
+  </si>
+  <si>
     <t>CMT-0904-83T</t>
   </si>
   <si>
@@ -153,6 +156,9 @@
     <t>DMG7430LFG-7</t>
   </si>
   <si>
+    <t>AONR21321</t>
+  </si>
+  <si>
     <t>RC0603JR-0710KL</t>
   </si>
   <si>
@@ -225,7 +231,10 @@
     <t>SOT23_M</t>
   </si>
   <si>
-    <t>TO-220AB</t>
+    <t>TRANS_AONR21321</t>
+  </si>
+  <si>
+    <t>QFN40P600X600X100-49N</t>
   </si>
   <si>
     <t>Value</t>
@@ -698,19 +707,19 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,16 +736,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>8.0000000000000002E-3</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
-        <v>2.4E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G3">
         <v>4.3900000000000002E-2</v>
@@ -779,10 +788,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <v>0.25</v>
@@ -805,10 +814,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>0.59589999999999999</v>
@@ -831,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G6">
         <v>8.0000000000000002E-3</v>
@@ -857,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G7">
         <v>2.7E-2</v>
@@ -883,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G8">
         <v>0.34</v>
@@ -909,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -935,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>0.13</v>
@@ -961,10 +970,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G11">
         <v>0.104</v>
@@ -987,16 +996,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G12">
-        <v>1.4999999999999999E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="H12">
-        <v>1.4999999999999999E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1013,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -1039,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14">
-        <v>1.7999999999999999E-2</v>
+        <v>2.9960000000000001E-2</v>
       </c>
       <c r="H14">
-        <v>1.7999999999999999E-2</v>
+        <v>2.9960000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1062,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>0.08</v>
@@ -1102,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G17">
         <v>0.14000000000000001</v>
@@ -1118,14 +1127,23 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="G18">
+        <v>0.3387</v>
+      </c>
+      <c r="H18">
+        <v>0.3387</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1136,13 +1154,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G19">
         <v>0.82</v>
@@ -1159,13 +1177,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>0.20810000000000001</v>
@@ -1182,13 +1200,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G21">
         <v>2.3E-2</v>
@@ -1205,13 +1223,13 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>0.30070000000000002</v>
@@ -1227,11 +1245,20 @@
       <c r="B23" t="s">
         <v>19</v>
       </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="G23">
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.39879999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1242,16 +1269,16 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G24">
         <v>1.4999999999999999E-2</v>
@@ -1268,16 +1295,16 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G25">
         <v>2.5999999999999999E-2</v>
@@ -1294,22 +1321,22 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G26">
-        <v>2.8199999999999999E-2</v>
+        <v>9.98E-2</v>
       </c>
       <c r="H26">
-        <v>5.6399999999999999E-2</v>
+        <v>0.1996</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1320,16 +1347,16 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G27">
         <v>7.5999999999999998E-2</v>
@@ -1346,16 +1373,16 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -1372,13 +1399,13 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1398,16 +1425,16 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G30">
         <v>6.1000000000000004E-3</v>
@@ -1424,16 +1451,16 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G31">
         <v>1.2999999999999999E-2</v>
@@ -1450,13 +1477,13 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F32">
         <v>12</v>
@@ -1476,16 +1503,16 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G33">
         <v>0.14000000000000001</v>
@@ -1502,13 +1529,13 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F34">
         <v>220</v>
@@ -1528,13 +1555,13 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F35">
         <v>680</v>
@@ -1554,13 +1581,13 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -1580,16 +1607,16 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G37">
         <v>0.1</v>
@@ -1606,13 +1633,13 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>100</v>
@@ -1635,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1650,6 +1677,9 @@
       </c>
       <c r="D40">
         <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>66</v>
       </c>
       <c r="G40">
         <v>7.31</v>

--- a/TransmitterBoard/Project Outputs for TransmitterBoard/TransmitterBoard.xlsx
+++ b/TransmitterBoard/Project Outputs for TransmitterBoard/TransmitterBoard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\TransmitterBoard\Project Outputs for TransmitterBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F104669-41C9-4734-84F8-4A3C3CD803EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B55716E-4276-45BB-8470-42B64A6CDAA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -820,10 +820,10 @@
         <v>71</v>
       </c>
       <c r="G5">
-        <v>0.59589999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="H5">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -846,10 +846,10 @@
         <v>72</v>
       </c>
       <c r="G6">
-        <v>8.0000000000000002E-3</v>
+        <v>3.2710000000000003E-2</v>
       </c>
       <c r="H6">
-        <v>3.2000000000000001E-2</v>
+        <v>0.32705000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>73</v>
       </c>
       <c r="G7">
-        <v>2.7E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="H7">
-        <v>0.27</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,10 +976,10 @@
         <v>77</v>
       </c>
       <c r="G11">
-        <v>0.104</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H11">
-        <v>1.04</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1054,10 +1054,10 @@
         <v>79</v>
       </c>
       <c r="G14">
-        <v>2.9960000000000001E-2</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="H14">
-        <v>2.9960000000000001E-2</v>
+        <v>6.8699999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1140,10 +1140,10 @@
         <v>81</v>
       </c>
       <c r="G18">
-        <v>0.3387</v>
+        <v>0.33579999999999999</v>
       </c>
       <c r="H18">
-        <v>0.3387</v>
+        <v>0.33579999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1333,10 +1333,10 @@
         <v>84</v>
       </c>
       <c r="G26">
-        <v>9.98E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="H26">
-        <v>0.1996</v>
+        <v>5.4199999999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1437,10 +1437,10 @@
         <v>87</v>
       </c>
       <c r="G30">
-        <v>6.1000000000000004E-3</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="H30">
-        <v>6.0999999999999999E-2</v>
+        <v>0.22140000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,10 +1645,10 @@
         <v>100</v>
       </c>
       <c r="G38">
-        <v>6.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H38">
-        <v>6.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">

--- a/TransmitterBoard/Project Outputs for TransmitterBoard/TransmitterBoard.xlsx
+++ b/TransmitterBoard/Project Outputs for TransmitterBoard/TransmitterBoard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\TransmitterBoard\Project Outputs for TransmitterBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B55716E-4276-45BB-8470-42B64A6CDAA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F059549A-CE2C-4789-9DFF-9BE7B0816A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>C0603C682K3GACTU</t>
+  </si>
+  <si>
+    <t>GRM1885C1H102JA01D</t>
   </si>
   <si>
     <t>GCM1885C2A560JA16D</t>
@@ -707,19 +710,19 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,10 +739,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -762,16 +765,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="H3">
-        <v>4.3900000000000002E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -788,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>0.25</v>
@@ -814,16 +817,16 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="H5">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -840,16 +843,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6">
-        <v>3.2710000000000003E-2</v>
+        <v>3.3739999999999999E-2</v>
       </c>
       <c r="H6">
-        <v>0.32705000000000001</v>
+        <v>0.33739999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -866,16 +869,16 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7">
-        <v>2.5700000000000001E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="H7">
-        <v>0.25700000000000001</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -892,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>0.34</v>
@@ -911,23 +914,23 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>885012006044</v>
+      <c r="C9" t="s">
+        <v>29</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>1.44E-2</v>
       </c>
       <c r="H9">
-        <v>0.1</v>
+        <v>1.44E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -938,16 +941,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>0.13</v>
@@ -964,22 +967,22 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11">
-        <v>9.4E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="H11">
-        <v>0.94</v>
+        <v>0.51590000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -990,22 +993,22 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12">
-        <v>4.9700000000000001E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="H12">
-        <v>4.9700000000000001E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1022,10 +1025,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -1042,22 +1045,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <v>6.8699999999999997E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="H14">
-        <v>6.8699999999999997E-2</v>
+        <v>1.49E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1071,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>0.08</v>
@@ -1105,13 +1108,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G17">
         <v>0.14000000000000001</v>
@@ -1128,22 +1131,22 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18">
-        <v>0.33579999999999999</v>
+        <v>0.189</v>
       </c>
       <c r="H18">
-        <v>0.33579999999999999</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1154,13 +1157,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G19">
         <v>0.82</v>
@@ -1177,19 +1180,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20">
-        <v>0.20810000000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.41620000000000001</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1200,13 +1197,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21">
         <v>2.3E-2</v>
@@ -1223,16 +1220,16 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>0.30070000000000002</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="H22">
         <v>1.2</v>
@@ -1246,13 +1243,13 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23">
         <v>0.39879999999999999</v>
@@ -1269,16 +1266,16 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24">
         <v>1.4999999999999999E-2</v>
@@ -1295,16 +1292,16 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25">
         <v>2.5999999999999999E-2</v>
@@ -1321,16 +1318,16 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26">
         <v>2.7099999999999999E-2</v>
@@ -1347,16 +1344,16 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27">
         <v>7.5999999999999998E-2</v>
@@ -1373,16 +1370,16 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -1399,13 +1396,13 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1425,22 +1422,22 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G30">
-        <v>3.6900000000000002E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H30">
-        <v>0.22140000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,16 +1448,16 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G31">
         <v>1.2999999999999999E-2</v>
@@ -1477,13 +1474,13 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F32">
         <v>12</v>
@@ -1503,22 +1500,22 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G33">
-        <v>0.14000000000000001</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="H33">
-        <v>0.28000000000000003</v>
+        <v>6.3799999999999996E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,13 +1526,13 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34">
         <v>220</v>
@@ -1555,13 +1552,13 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F35">
         <v>680</v>
@@ -1581,13 +1578,13 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -1607,16 +1604,16 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G37">
         <v>0.1</v>
@@ -1633,22 +1630,22 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F38">
         <v>100</v>
       </c>
       <c r="G38">
-        <v>9.8000000000000004E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="H38">
-        <v>9.8000000000000004E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1662,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1679,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G40">
         <v>7.31</v>
